--- a/info.xlsx
+++ b/info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse\DemoLazeE2E\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02722787-3D13-4A82-AE59-ABEFE193666D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267F2A50-BECA-4C36-B630-E9361EE42272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -352,10 +352,14 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
